--- a/doc/进度风险汇总.xlsx
+++ b/doc/进度风险汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>一级菜单</t>
   </si>
@@ -48,7 +48,7 @@
     <t>完成（手机/pc）</t>
   </si>
   <si>
-    <t>李棋</t>
+    <t>李*</t>
   </si>
   <si>
     <t>1.整个项目的手机端菜单与设计图有差异还需优化调整
@@ -117,7 +117,7 @@
     <t>aboutUs.html</t>
   </si>
   <si>
-    <t>赵扬霞</t>
+    <t>赵**</t>
   </si>
   <si>
     <t>会员制度</t>
@@ -144,22 +144,13 @@
     <t>yamStore.html</t>
   </si>
   <si>
-    <t>秦忠义</t>
+    <t>秦**</t>
   </si>
   <si>
     <t>手机端未调整，轮播图功能需要调整</t>
   </si>
   <si>
     <t>YAM Store详情</t>
-  </si>
-  <si>
-    <t>最新动态</t>
-  </si>
-  <si>
-    <t>新闻动态列表</t>
-  </si>
-  <si>
-    <t>新闻动态正文</t>
   </si>
   <si>
     <t>newsInfo.html</t>
@@ -175,7 +166,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,49 +197,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,6 +241,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -267,38 +301,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,53 +340,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,187 +356,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,23 +588,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +618,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,24 +649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,13 +668,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,152 +687,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,12 +852,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,9 +861,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -1304,258 +1273,232 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="75" customHeight="1" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="6" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
